--- a/Extras/combinatoria interfaces.xlsx
+++ b/Extras/combinatoria interfaces.xlsx
@@ -4,19 +4,19 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="combinatoria" sheetId="1" r:id="rId1"/>
     <sheet name="Combinatoria nodos programas" sheetId="2" r:id="rId2"/>
-    <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
+    <sheet name="combinatoria combinacion impact" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="940" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1084" uniqueCount="67">
   <si>
     <t>A</t>
   </si>
@@ -194,6 +194,30 @@
   <si>
     <t>")).Entonces(</t>
   </si>
+  <si>
+    <t>publicaciones</t>
+  </si>
+  <si>
+    <t>sin publicaciones</t>
+  </si>
+  <si>
+    <t>bajo</t>
+  </si>
+  <si>
+    <t>medio</t>
+  </si>
+  <si>
+    <t>impacto</t>
+  </si>
+  <si>
+    <t>var_publicaciones</t>
+  </si>
+  <si>
+    <t>var_impacto</t>
+  </si>
+  <si>
+    <t>var_estado</t>
+  </si>
 </sst>
 </file>
 
@@ -228,12 +252,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
@@ -538,7 +563,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF42"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="AC7" sqref="AC7:AC42"/>
     </sheetView>
   </sheetViews>
@@ -576,17 +601,17 @@
       <c r="D1" t="s">
         <v>4</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="N1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="O1" s="3"/>
-      <c r="P1" s="3"/>
-      <c r="Q1" s="3"/>
-      <c r="R1" s="3"/>
-      <c r="S1" s="3"/>
-      <c r="T1" s="3"/>
-      <c r="U1" s="3"/>
-      <c r="V1" s="3"/>
+      <c r="O1" s="4"/>
+      <c r="P1" s="4"/>
+      <c r="Q1" s="4"/>
+      <c r="R1" s="4"/>
+      <c r="S1" s="4"/>
+      <c r="T1" s="4"/>
+      <c r="U1" s="4"/>
+      <c r="V1" s="4"/>
     </row>
     <row r="2" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -604,17 +629,17 @@
       <c r="E2" t="s">
         <v>9</v>
       </c>
-      <c r="N2" s="3" t="s">
+      <c r="N2" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="O2" s="3"/>
-      <c r="P2" s="3"/>
-      <c r="Q2" s="3"/>
-      <c r="R2" s="3"/>
-      <c r="S2" s="3"/>
-      <c r="T2" s="3"/>
-      <c r="U2" s="3"/>
-      <c r="V2" s="3"/>
+      <c r="O2" s="4"/>
+      <c r="P2" s="4"/>
+      <c r="Q2" s="4"/>
+      <c r="R2" s="4"/>
+      <c r="S2" s="4"/>
+      <c r="T2" s="4"/>
+      <c r="U2" s="4"/>
+      <c r="V2" s="4"/>
     </row>
     <row r="3" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -629,17 +654,17 @@
       <c r="D3" t="s">
         <v>13</v>
       </c>
-      <c r="N3" s="3" t="s">
+      <c r="N3" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="O3" s="3"/>
-      <c r="P3" s="3"/>
-      <c r="Q3" s="3"/>
-      <c r="R3" s="3"/>
-      <c r="S3" s="3"/>
-      <c r="T3" s="3"/>
-      <c r="U3" s="3"/>
-      <c r="V3" s="3"/>
+      <c r="O3" s="4"/>
+      <c r="P3" s="4"/>
+      <c r="Q3" s="4"/>
+      <c r="R3" s="4"/>
+      <c r="S3" s="4"/>
+      <c r="T3" s="4"/>
+      <c r="U3" s="4"/>
+      <c r="V3" s="4"/>
     </row>
     <row r="4" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -660,17 +685,17 @@
       <c r="F4" t="s">
         <v>22</v>
       </c>
-      <c r="N4" s="3" t="s">
+      <c r="N4" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="O4" s="3"/>
-      <c r="P4" s="3"/>
-      <c r="Q4" s="3"/>
-      <c r="R4" s="3"/>
-      <c r="S4" s="3"/>
-      <c r="T4" s="3"/>
-      <c r="U4" s="3"/>
-      <c r="V4" s="3"/>
+      <c r="O4" s="4"/>
+      <c r="P4" s="4"/>
+      <c r="Q4" s="4"/>
+      <c r="R4" s="4"/>
+      <c r="S4" s="4"/>
+      <c r="T4" s="4"/>
+      <c r="U4" s="4"/>
+      <c r="V4" s="4"/>
     </row>
     <row r="6" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
@@ -4243,8 +4268,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AN42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4301,18 +4326,18 @@
       <c r="O1" t="s">
         <v>54</v>
       </c>
-      <c r="AF1" s="3" t="str">
+      <c r="AF1" s="4" t="str">
         <f>CONCATENATE(H1,J1,K1,L1,N1,O1)</f>
         <v>VariableDifusa m_alumnos = fuzzy.Entradas["matricula alumnos"];</v>
       </c>
-      <c r="AG1" s="3"/>
-      <c r="AH1" s="3"/>
-      <c r="AI1" s="3"/>
-      <c r="AJ1" s="3"/>
-      <c r="AK1" s="3"/>
-      <c r="AL1" s="3"/>
-      <c r="AM1" s="3"/>
-      <c r="AN1" s="3"/>
+      <c r="AG1" s="4"/>
+      <c r="AH1" s="4"/>
+      <c r="AI1" s="4"/>
+      <c r="AJ1" s="4"/>
+      <c r="AK1" s="4"/>
+      <c r="AL1" s="4"/>
+      <c r="AM1" s="4"/>
+      <c r="AN1" s="4"/>
     </row>
     <row r="2" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -4349,18 +4374,18 @@
       <c r="O2" t="s">
         <v>54</v>
       </c>
-      <c r="AF2" s="3" t="str">
+      <c r="AF2" s="4" t="str">
         <f>CONCATENATE(H2,J2,K2,L2,N2,O2)</f>
         <v>VariableDifusa acreditacion = fuzzy.Entradas["acreditacion"];</v>
       </c>
-      <c r="AG2" s="3"/>
-      <c r="AH2" s="3"/>
-      <c r="AI2" s="3"/>
-      <c r="AJ2" s="3"/>
-      <c r="AK2" s="3"/>
-      <c r="AL2" s="3"/>
-      <c r="AM2" s="3"/>
-      <c r="AN2" s="3"/>
+      <c r="AG2" s="4"/>
+      <c r="AH2" s="4"/>
+      <c r="AI2" s="4"/>
+      <c r="AJ2" s="4"/>
+      <c r="AK2" s="4"/>
+      <c r="AL2" s="4"/>
+      <c r="AM2" s="4"/>
+      <c r="AN2" s="4"/>
     </row>
     <row r="3" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -4394,18 +4419,18 @@
       <c r="O3" t="s">
         <v>54</v>
       </c>
-      <c r="AF3" s="3" t="str">
+      <c r="AF3" s="4" t="str">
         <f>CONCATENATE(H3,J3,K3,L3,N3,O3)</f>
         <v>VariableDifusa nivel_academico = fuzzy.Entradas["nivel_academico"];</v>
       </c>
-      <c r="AG3" s="3"/>
-      <c r="AH3" s="3"/>
-      <c r="AI3" s="3"/>
-      <c r="AJ3" s="3"/>
-      <c r="AK3" s="3"/>
-      <c r="AL3" s="3"/>
-      <c r="AM3" s="3"/>
-      <c r="AN3" s="3"/>
+      <c r="AG3" s="4"/>
+      <c r="AH3" s="4"/>
+      <c r="AI3" s="4"/>
+      <c r="AJ3" s="4"/>
+      <c r="AK3" s="4"/>
+      <c r="AL3" s="4"/>
+      <c r="AM3" s="4"/>
+      <c r="AN3" s="4"/>
     </row>
     <row r="4" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -4445,18 +4470,18 @@
       <c r="O4" t="s">
         <v>54</v>
       </c>
-      <c r="AF4" s="3" t="str">
+      <c r="AF4" s="4" t="str">
         <f>CONCATENATE(H4,J4,K4,L4,N4,O4)</f>
         <v>VariableDifusa estado = fuzzy.Salidas["estado"];</v>
       </c>
-      <c r="AG4" s="3"/>
-      <c r="AH4" s="3"/>
-      <c r="AI4" s="3"/>
-      <c r="AJ4" s="3"/>
-      <c r="AK4" s="3"/>
-      <c r="AL4" s="3"/>
-      <c r="AM4" s="3"/>
-      <c r="AN4" s="3"/>
+      <c r="AG4" s="4"/>
+      <c r="AH4" s="4"/>
+      <c r="AI4" s="4"/>
+      <c r="AJ4" s="4"/>
+      <c r="AK4" s="4"/>
+      <c r="AL4" s="4"/>
+      <c r="AM4" s="4"/>
+      <c r="AN4" s="4"/>
     </row>
     <row r="6" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
@@ -8027,12 +8052,1563 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:AN42"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="AF18" sqref="AF2:AN18"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="17.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="3"/>
+    <col min="3" max="3" width="13.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="9" width="9.140625" style="3"/>
+    <col min="10" max="10" width="18.42578125" style="3" customWidth="1"/>
+    <col min="11" max="13" width="9.140625" style="3"/>
+    <col min="14" max="14" width="8.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="5" style="3" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="3" style="3" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="4.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="15.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="5" style="3" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="3.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="4.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="1.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="5" style="3" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="2.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="11.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="2.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="2.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="3.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="9.140625" style="3"/>
+    <col min="32" max="32" width="129.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="33" max="16384" width="9.140625" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AF1" s="4"/>
+      <c r="AG1" s="4"/>
+      <c r="AH1" s="4"/>
+      <c r="AI1" s="4"/>
+      <c r="AJ1" s="4"/>
+      <c r="AK1" s="4"/>
+      <c r="AL1" s="4"/>
+      <c r="AM1" s="4"/>
+      <c r="AN1" s="4"/>
+    </row>
+    <row r="2" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="N2" s="3" t="str">
+        <f>A2</f>
+        <v>publicaciones</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AF2" s="4" t="str">
+        <f>CONCATENATE(H2,J2,K2,L2,N2,O2)</f>
+        <v>VariableDifusa var_publicaciones = fuzzy.Entradas["publicaciones"];</v>
+      </c>
+      <c r="AG2" s="4"/>
+      <c r="AH2" s="4"/>
+      <c r="AI2" s="4"/>
+      <c r="AJ2" s="4"/>
+      <c r="AK2" s="4"/>
+      <c r="AL2" s="4"/>
+      <c r="AM2" s="4"/>
+      <c r="AN2" s="4"/>
+    </row>
+    <row r="3" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="N3" s="3" t="str">
+        <f>A3</f>
+        <v>impacto</v>
+      </c>
+      <c r="O3" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AF3" s="4" t="str">
+        <f>CONCATENATE(H3,J3,K3,L3,N3,O3)</f>
+        <v>VariableDifusa var_impacto = fuzzy.Entradas["impacto"];</v>
+      </c>
+      <c r="AG3" s="4"/>
+      <c r="AH3" s="4"/>
+      <c r="AI3" s="4"/>
+      <c r="AJ3" s="4"/>
+      <c r="AK3" s="4"/>
+      <c r="AL3" s="4"/>
+      <c r="AM3" s="4"/>
+      <c r="AN3" s="4"/>
+    </row>
+    <row r="4" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="N4" s="3" t="str">
+        <f>A4</f>
+        <v>estado</v>
+      </c>
+      <c r="O4" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AF4" s="4" t="str">
+        <f>CONCATENATE(H4,J4,K4,L4,N4,O4)</f>
+        <v>VariableDifusa var_estado = fuzzy.Salidas["estado"];</v>
+      </c>
+      <c r="AG4" s="4"/>
+      <c r="AH4" s="4"/>
+      <c r="AI4" s="4"/>
+      <c r="AJ4" s="4"/>
+      <c r="AK4" s="4"/>
+      <c r="AL4" s="4"/>
+      <c r="AM4" s="4"/>
+      <c r="AN4" s="4"/>
+    </row>
+    <row r="6" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L6" s="2"/>
+    </row>
+    <row r="7" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1">
+        <v>0</v>
+      </c>
+      <c r="H7" s="1">
+        <f>IF(D7="b1",1,IF(D7="b2",2,IF(D7="b3",3,4)))</f>
+        <v>1</v>
+      </c>
+      <c r="I7" s="1">
+        <f>IF(E7="c1",1,IF(E7="c2",2,3))</f>
+        <v>1</v>
+      </c>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1">
+        <f>SUM(G7:I7)</f>
+        <v>2</v>
+      </c>
+      <c r="L7" s="2" t="str">
+        <f>IF(OR(K7=2),"d1",IF(OR(K7=3),"d2",IF(OR(K7=4,K7=5),"d3",IF(OR(K7=6),"d4","d5"))))</f>
+        <v>d1</v>
+      </c>
+      <c r="N7" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="S7" s="3" t="str">
+        <f>$J$2</f>
+        <v>var_publicaciones</v>
+      </c>
+      <c r="T7" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="U7" s="3" t="str">
+        <f>IF(D7="b1",$B$2,IF(D7="b2",$C$2,IF(D7="b3",$D$2,IF(D7="b4",$E$2,))))</f>
+        <v>sin publicaciones</v>
+      </c>
+      <c r="V7" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="W7" s="3" t="str">
+        <f>$J$3</f>
+        <v>var_impacto</v>
+      </c>
+      <c r="X7" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y7" s="3" t="str">
+        <f>IF(E7="c1",$B$3,IF(E7="c2",$C$3,IF(E7="c3",$D$3,)))</f>
+        <v>bajo</v>
+      </c>
+      <c r="Z7" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA7" s="3" t="str">
+        <f>$J$4</f>
+        <v>var_estado</v>
+      </c>
+      <c r="AB7" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="AC7" s="2" t="str">
+        <f>IF(L7="d1",$B$4,IF(L7="d2",$C$4,IF(L7="d3",$D$4,IF(L7="d4",$E$4,IF(L7="d5",$F$4,)))))</f>
+        <v>pesimo</v>
+      </c>
+      <c r="AD7" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="AF7" s="3" t="str">
+        <f>CONCATENATE(N7,O7,P7,Q7,R7,S7,T7,U7,V7,W7,X7,Y7,Z7,AA7,AB7,AC7,AD7)</f>
+        <v>fuzzy.Si(var_publicaciones.Es("sin publicaciones") &amp; var_impacto.Es("bajo")).Entonces(var_estado, "pesimo");</v>
+      </c>
+    </row>
+    <row r="8" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1">
+        <v>0</v>
+      </c>
+      <c r="H8" s="1">
+        <f t="shared" ref="H8:H42" si="0">IF(D8="b1",1,IF(D8="b2",2,IF(D8="b3",3,4)))</f>
+        <v>1</v>
+      </c>
+      <c r="I8" s="1">
+        <f t="shared" ref="I8:I42" si="1">IF(E8="c1",1,IF(E8="c2",2,3))</f>
+        <v>2</v>
+      </c>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1">
+        <f t="shared" ref="K8:K42" si="2">SUM(G8:I8)</f>
+        <v>3</v>
+      </c>
+      <c r="L8" s="2" t="str">
+        <f t="shared" ref="L8:L18" si="3">IF(OR(K8=2),"d1",IF(OR(K8=3),"d2",IF(OR(K8=4,K8=5),"d3",IF(OR(K8=6),"d4","d5"))))</f>
+        <v>d2</v>
+      </c>
+      <c r="N8" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="S8" s="3" t="str">
+        <f t="shared" ref="S8:S42" si="4">$J$2</f>
+        <v>var_publicaciones</v>
+      </c>
+      <c r="T8" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="U8" s="3" t="str">
+        <f t="shared" ref="U8:U42" si="5">IF(D8="b1",$B$2,IF(D8="b2",$C$2,IF(D8="b3",$D$2,IF(D8="b4",$E$2,))))</f>
+        <v>sin publicaciones</v>
+      </c>
+      <c r="V8" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="W8" s="3" t="str">
+        <f t="shared" ref="W8:W42" si="6">$J$3</f>
+        <v>var_impacto</v>
+      </c>
+      <c r="X8" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y8" s="3" t="str">
+        <f t="shared" ref="Y8:Y42" si="7">IF(E8="c1",$B$3,IF(E8="c2",$C$3,IF(E8="c3",$D$3,)))</f>
+        <v>medio</v>
+      </c>
+      <c r="Z8" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA8" s="3" t="str">
+        <f t="shared" ref="AA8:AA42" si="8">$J$4</f>
+        <v>var_estado</v>
+      </c>
+      <c r="AB8" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="AC8" s="2" t="str">
+        <f t="shared" ref="AC8:AC42" si="9">IF(L8="d1",$B$4,IF(L8="d2",$C$4,IF(L8="d3",$D$4,IF(L8="d4",$E$4,IF(L8="d5",$F$4,)))))</f>
+        <v>malo</v>
+      </c>
+      <c r="AD8" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="AF8" s="3" t="str">
+        <f t="shared" ref="AF8:AF42" si="10">CONCATENATE(N8,O8,P8,Q8,R8,S8,T8,U8,V8,W8,X8,Y8,Z8,AA8,AB8,AC8,AD8)</f>
+        <v>fuzzy.Si(var_publicaciones.Es("sin publicaciones") &amp; var_impacto.Es("medio")).Entonces(var_estado, "malo");</v>
+      </c>
+    </row>
+    <row r="9" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1">
+        <v>0</v>
+      </c>
+      <c r="H9" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I9" s="1">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="L9" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>d3</v>
+      </c>
+      <c r="N9" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="S9" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>var_publicaciones</v>
+      </c>
+      <c r="T9" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="U9" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>sin publicaciones</v>
+      </c>
+      <c r="V9" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="W9" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>var_impacto</v>
+      </c>
+      <c r="X9" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y9" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v>alto</v>
+      </c>
+      <c r="Z9" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA9" s="3" t="str">
+        <f t="shared" si="8"/>
+        <v>var_estado</v>
+      </c>
+      <c r="AB9" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="AC9" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>regular</v>
+      </c>
+      <c r="AD9" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="AF9" s="3" t="str">
+        <f t="shared" si="10"/>
+        <v>fuzzy.Si(var_publicaciones.Es("sin publicaciones") &amp; var_impacto.Es("alto")).Entonces(var_estado, "regular");</v>
+      </c>
+    </row>
+    <row r="10" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1">
+        <v>0</v>
+      </c>
+      <c r="H10" s="1">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="I10" s="1">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="L10" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>d2</v>
+      </c>
+      <c r="N10" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="S10" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>var_publicaciones</v>
+      </c>
+      <c r="T10" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="U10" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>bajo</v>
+      </c>
+      <c r="V10" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="W10" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>var_impacto</v>
+      </c>
+      <c r="X10" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y10" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v>bajo</v>
+      </c>
+      <c r="Z10" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA10" s="3" t="str">
+        <f t="shared" si="8"/>
+        <v>var_estado</v>
+      </c>
+      <c r="AB10" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="AC10" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>malo</v>
+      </c>
+      <c r="AD10" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="AF10" s="3" t="str">
+        <f t="shared" si="10"/>
+        <v>fuzzy.Si(var_publicaciones.Es("bajo") &amp; var_impacto.Es("bajo")).Entonces(var_estado, "malo");</v>
+      </c>
+    </row>
+    <row r="11" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1">
+        <v>0</v>
+      </c>
+      <c r="H11" s="1">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="I11" s="1">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="L11" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>d3</v>
+      </c>
+      <c r="N11" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="S11" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>var_publicaciones</v>
+      </c>
+      <c r="T11" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="U11" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>bajo</v>
+      </c>
+      <c r="V11" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="W11" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>var_impacto</v>
+      </c>
+      <c r="X11" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y11" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v>medio</v>
+      </c>
+      <c r="Z11" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA11" s="3" t="str">
+        <f t="shared" si="8"/>
+        <v>var_estado</v>
+      </c>
+      <c r="AB11" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="AC11" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>regular</v>
+      </c>
+      <c r="AD11" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="AF11" s="3" t="str">
+        <f t="shared" si="10"/>
+        <v>fuzzy.Si(var_publicaciones.Es("bajo") &amp; var_impacto.Es("medio")).Entonces(var_estado, "regular");</v>
+      </c>
+    </row>
+    <row r="12" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1">
+        <v>0</v>
+      </c>
+      <c r="H12" s="1">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="I12" s="1">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="L12" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>d3</v>
+      </c>
+      <c r="N12" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="S12" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>var_publicaciones</v>
+      </c>
+      <c r="T12" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="U12" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>bajo</v>
+      </c>
+      <c r="V12" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="W12" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>var_impacto</v>
+      </c>
+      <c r="X12" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y12" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v>alto</v>
+      </c>
+      <c r="Z12" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA12" s="3" t="str">
+        <f t="shared" si="8"/>
+        <v>var_estado</v>
+      </c>
+      <c r="AB12" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="AC12" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>regular</v>
+      </c>
+      <c r="AD12" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="AF12" s="3" t="str">
+        <f t="shared" si="10"/>
+        <v>fuzzy.Si(var_publicaciones.Es("bajo") &amp; var_impacto.Es("alto")).Entonces(var_estado, "regular");</v>
+      </c>
+    </row>
+    <row r="13" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1">
+        <v>0</v>
+      </c>
+      <c r="H13" s="1">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="I13" s="1">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="L13" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>d3</v>
+      </c>
+      <c r="N13" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="S13" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>var_publicaciones</v>
+      </c>
+      <c r="T13" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="U13" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>medio</v>
+      </c>
+      <c r="V13" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="W13" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>var_impacto</v>
+      </c>
+      <c r="X13" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y13" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v>bajo</v>
+      </c>
+      <c r="Z13" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA13" s="3" t="str">
+        <f t="shared" si="8"/>
+        <v>var_estado</v>
+      </c>
+      <c r="AB13" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="AC13" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>regular</v>
+      </c>
+      <c r="AD13" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="AF13" s="3" t="str">
+        <f t="shared" si="10"/>
+        <v>fuzzy.Si(var_publicaciones.Es("medio") &amp; var_impacto.Es("bajo")).Entonces(var_estado, "regular");</v>
+      </c>
+    </row>
+    <row r="14" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1">
+        <v>0</v>
+      </c>
+      <c r="H14" s="1">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="I14" s="1">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="L14" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>d3</v>
+      </c>
+      <c r="N14" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="S14" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>var_publicaciones</v>
+      </c>
+      <c r="T14" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="U14" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>medio</v>
+      </c>
+      <c r="V14" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="W14" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>var_impacto</v>
+      </c>
+      <c r="X14" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y14" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v>medio</v>
+      </c>
+      <c r="Z14" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA14" s="3" t="str">
+        <f t="shared" si="8"/>
+        <v>var_estado</v>
+      </c>
+      <c r="AB14" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="AC14" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>regular</v>
+      </c>
+      <c r="AD14" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="AF14" s="3" t="str">
+        <f t="shared" si="10"/>
+        <v>fuzzy.Si(var_publicaciones.Es("medio") &amp; var_impacto.Es("medio")).Entonces(var_estado, "regular");</v>
+      </c>
+    </row>
+    <row r="15" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1">
+        <v>0</v>
+      </c>
+      <c r="H15" s="1">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="I15" s="1">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="L15" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>d4</v>
+      </c>
+      <c r="N15" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="S15" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>var_publicaciones</v>
+      </c>
+      <c r="T15" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="U15" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>medio</v>
+      </c>
+      <c r="V15" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="W15" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>var_impacto</v>
+      </c>
+      <c r="X15" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y15" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v>alto</v>
+      </c>
+      <c r="Z15" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA15" s="3" t="str">
+        <f t="shared" si="8"/>
+        <v>var_estado</v>
+      </c>
+      <c r="AB15" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="AC15" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>bueno</v>
+      </c>
+      <c r="AD15" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="AF15" s="3" t="str">
+        <f t="shared" si="10"/>
+        <v>fuzzy.Si(var_publicaciones.Es("medio") &amp; var_impacto.Es("alto")).Entonces(var_estado, "bueno");</v>
+      </c>
+    </row>
+    <row r="16" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1">
+        <v>0</v>
+      </c>
+      <c r="H16" s="1">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="I16" s="1">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="L16" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>d3</v>
+      </c>
+      <c r="N16" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="S16" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>var_publicaciones</v>
+      </c>
+      <c r="T16" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="U16" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>alto</v>
+      </c>
+      <c r="V16" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="W16" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>var_impacto</v>
+      </c>
+      <c r="X16" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y16" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v>bajo</v>
+      </c>
+      <c r="Z16" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA16" s="3" t="str">
+        <f t="shared" si="8"/>
+        <v>var_estado</v>
+      </c>
+      <c r="AB16" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="AC16" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>regular</v>
+      </c>
+      <c r="AD16" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="AF16" s="3" t="str">
+        <f t="shared" si="10"/>
+        <v>fuzzy.Si(var_publicaciones.Es("alto") &amp; var_impacto.Es("bajo")).Entonces(var_estado, "regular");</v>
+      </c>
+    </row>
+    <row r="17" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1">
+        <v>0</v>
+      </c>
+      <c r="H17" s="1">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="I17" s="1">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="L17" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>d4</v>
+      </c>
+      <c r="N17" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="S17" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>var_publicaciones</v>
+      </c>
+      <c r="T17" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="U17" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>alto</v>
+      </c>
+      <c r="V17" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="W17" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>var_impacto</v>
+      </c>
+      <c r="X17" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y17" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v>medio</v>
+      </c>
+      <c r="Z17" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA17" s="3" t="str">
+        <f t="shared" si="8"/>
+        <v>var_estado</v>
+      </c>
+      <c r="AB17" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="AC17" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>bueno</v>
+      </c>
+      <c r="AD17" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="AF17" s="3" t="str">
+        <f t="shared" si="10"/>
+        <v>fuzzy.Si(var_publicaciones.Es("alto") &amp; var_impacto.Es("medio")).Entonces(var_estado, "bueno");</v>
+      </c>
+    </row>
+    <row r="18" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1">
+        <v>0</v>
+      </c>
+      <c r="H18" s="1">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="I18" s="1">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="L18" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>d5</v>
+      </c>
+      <c r="N18" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="S18" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>var_publicaciones</v>
+      </c>
+      <c r="T18" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="U18" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>alto</v>
+      </c>
+      <c r="V18" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="W18" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>var_impacto</v>
+      </c>
+      <c r="X18" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y18" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v>alto</v>
+      </c>
+      <c r="Z18" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA18" s="3" t="str">
+        <f t="shared" si="8"/>
+        <v>var_estado</v>
+      </c>
+      <c r="AB18" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="AC18" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>excelente</v>
+      </c>
+      <c r="AD18" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="AF18" s="3" t="str">
+        <f t="shared" si="10"/>
+        <v>fuzzy.Si(var_publicaciones.Es("alto") &amp; var_impacto.Es("alto")).Entonces(var_estado, "excelente");</v>
+      </c>
+    </row>
+    <row r="19" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="2"/>
+      <c r="AC19" s="2"/>
+    </row>
+    <row r="20" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="2"/>
+      <c r="AC20" s="2"/>
+    </row>
+    <row r="21" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="2"/>
+      <c r="AC21" s="2"/>
+    </row>
+    <row r="22" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="2"/>
+      <c r="AC22" s="2"/>
+    </row>
+    <row r="23" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="2"/>
+      <c r="AC23" s="2"/>
+    </row>
+    <row r="24" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="2"/>
+      <c r="AC24" s="2"/>
+    </row>
+    <row r="25" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="2"/>
+      <c r="AC25" s="2"/>
+    </row>
+    <row r="26" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="2"/>
+      <c r="AC26" s="2"/>
+    </row>
+    <row r="27" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A27" s="1"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="1"/>
+      <c r="L27" s="2"/>
+      <c r="AC27" s="2"/>
+    </row>
+    <row r="28" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A28" s="1"/>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="2"/>
+      <c r="AC28" s="2"/>
+    </row>
+    <row r="29" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A29" s="1"/>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
+      <c r="J29" s="1"/>
+      <c r="K29" s="1"/>
+      <c r="L29" s="2"/>
+      <c r="AC29" s="2"/>
+    </row>
+    <row r="30" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A30" s="1"/>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
+      <c r="L30" s="2"/>
+      <c r="AC30" s="2"/>
+    </row>
+    <row r="31" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A31" s="1"/>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
+      <c r="L31" s="2"/>
+      <c r="AC31" s="2"/>
+    </row>
+    <row r="32" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A32" s="1"/>
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="1"/>
+      <c r="J32" s="1"/>
+      <c r="K32" s="1"/>
+      <c r="L32" s="2"/>
+      <c r="AC32" s="2"/>
+    </row>
+    <row r="33" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A33" s="1"/>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="1"/>
+      <c r="J33" s="1"/>
+      <c r="K33" s="1"/>
+      <c r="L33" s="2"/>
+      <c r="AC33" s="2"/>
+    </row>
+    <row r="34" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A34" s="1"/>
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
+      <c r="H34" s="1"/>
+      <c r="I34" s="1"/>
+      <c r="J34" s="1"/>
+      <c r="K34" s="1"/>
+      <c r="L34" s="2"/>
+      <c r="AC34" s="2"/>
+    </row>
+    <row r="35" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A35" s="1"/>
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+      <c r="H35" s="1"/>
+      <c r="I35" s="1"/>
+      <c r="J35" s="1"/>
+      <c r="K35" s="1"/>
+      <c r="L35" s="2"/>
+      <c r="AC35" s="2"/>
+    </row>
+    <row r="36" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A36" s="1"/>
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+      <c r="H36" s="1"/>
+      <c r="I36" s="1"/>
+      <c r="J36" s="1"/>
+      <c r="K36" s="1"/>
+      <c r="L36" s="2"/>
+      <c r="AC36" s="2"/>
+    </row>
+    <row r="37" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A37" s="1"/>
+      <c r="B37" s="1"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
+      <c r="H37" s="1"/>
+      <c r="I37" s="1"/>
+      <c r="J37" s="1"/>
+      <c r="K37" s="1"/>
+      <c r="L37" s="2"/>
+      <c r="AC37" s="2"/>
+    </row>
+    <row r="38" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A38" s="1"/>
+      <c r="B38" s="1"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1"/>
+      <c r="H38" s="1"/>
+      <c r="I38" s="1"/>
+      <c r="J38" s="1"/>
+      <c r="K38" s="1"/>
+      <c r="L38" s="2"/>
+      <c r="AC38" s="2"/>
+    </row>
+    <row r="39" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A39" s="1"/>
+      <c r="B39" s="1"/>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
+      <c r="F39" s="1"/>
+      <c r="G39" s="1"/>
+      <c r="H39" s="1"/>
+      <c r="I39" s="1"/>
+      <c r="J39" s="1"/>
+      <c r="K39" s="1"/>
+      <c r="L39" s="2"/>
+      <c r="AC39" s="2"/>
+    </row>
+    <row r="40" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A40" s="1"/>
+      <c r="B40" s="1"/>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1"/>
+      <c r="F40" s="1"/>
+      <c r="G40" s="1"/>
+      <c r="H40" s="1"/>
+      <c r="I40" s="1"/>
+      <c r="J40" s="1"/>
+      <c r="K40" s="1"/>
+      <c r="L40" s="2"/>
+      <c r="AC40" s="2"/>
+    </row>
+    <row r="41" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A41" s="1"/>
+      <c r="B41" s="1"/>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1"/>
+      <c r="G41" s="1"/>
+      <c r="H41" s="1"/>
+      <c r="I41" s="1"/>
+      <c r="J41" s="1"/>
+      <c r="K41" s="1"/>
+      <c r="L41" s="2"/>
+      <c r="AC41" s="2"/>
+    </row>
+    <row r="42" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A42" s="1"/>
+      <c r="B42" s="1"/>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
+      <c r="F42" s="1"/>
+      <c r="G42" s="1"/>
+      <c r="H42" s="1"/>
+      <c r="I42" s="1"/>
+      <c r="J42" s="1"/>
+      <c r="K42" s="1"/>
+      <c r="L42" s="2"/>
+      <c r="AC42" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="AF1:AN1"/>
+    <mergeCell ref="AF2:AN2"/>
+    <mergeCell ref="AF3:AN3"/>
+    <mergeCell ref="AF4:AN4"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>